--- a/public/files/claim_details_sample_file.xlsx
+++ b/public/files/claim_details_sample_file.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>ClaimNo</t>
   </si>
@@ -19,7 +19,13 @@
     <t>ClaimType</t>
   </si>
   <si>
+    <t>SourceSystem</t>
+  </si>
+  <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t>R</t>
@@ -82,12 +88,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -310,8 +319,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.14"/>
-    <col customWidth="1" min="2" max="2" width="9.86"/>
-    <col customWidth="1" min="3" max="26" width="8.71"/>
+    <col customWidth="1" min="2" max="3" width="9.86"/>
+    <col customWidth="1" min="4" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -321,34 +330,46 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>4949.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>4949.0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>5454.0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
